--- a/output/3Y_P5_KFSDIV.xlsx
+++ b/output/3Y_P5_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -3574,10 +3577,10 @@
         <v>153479.8061</v>
       </c>
       <c r="K14" s="1">
-        <v>100168.6625</v>
+        <v>100169.505</v>
       </c>
       <c r="L14" s="1">
-        <v>9.8782</v>
+        <v>9.878299999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -3627,7 +3630,7 @@
         <v>174115.4162</v>
       </c>
       <c r="K15" s="1">
-        <v>102971.0727</v>
+        <v>102971.9152</v>
       </c>
       <c r="L15" s="1">
         <v>9.9366</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -3680,10 +3683,10 @@
         <v>199762.3313</v>
       </c>
       <c r="K16" s="1">
-        <v>102321.6783</v>
+        <v>102325.1134</v>
       </c>
       <c r="L16" s="1">
-        <v>9.919499999999999</v>
+        <v>9.9198</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -3733,10 +3736,10 @@
         <v>210116.9121</v>
       </c>
       <c r="K17" s="1">
-        <v>101334.1053</v>
+        <v>101341.4851</v>
       </c>
       <c r="L17" s="1">
-        <v>9.888199999999999</v>
+        <v>9.8889</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -3786,10 +3789,10 @@
         <v>210390.903</v>
       </c>
       <c r="K18" s="1">
-        <v>111018.2466</v>
+        <v>111025.6263</v>
       </c>
       <c r="L18" s="1">
-        <v>10.1801</v>
+        <v>10.1808</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -3839,10 +3842,10 @@
         <v>231619.1818</v>
       </c>
       <c r="K19" s="1">
-        <v>130784.521</v>
+        <v>130791.9007</v>
       </c>
       <c r="L19" s="1">
-        <v>10.6038</v>
+        <v>10.6044</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -3892,10 +3895,10 @@
         <v>224174.4543</v>
       </c>
       <c r="K20" s="1">
-        <v>139326.2775</v>
+        <v>139333.6573</v>
       </c>
       <c r="L20" s="1">
-        <v>10.7624</v>
+        <v>10.763</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -3945,10 +3948,10 @@
         <v>229566.87</v>
       </c>
       <c r="K21" s="1">
-        <v>166846.8595</v>
+        <v>166854.2393</v>
       </c>
       <c r="L21" s="1">
-        <v>11.0289</v>
+        <v>11.0294</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -3998,10 +4001,10 @@
         <v>258978.1295</v>
       </c>
       <c r="K22" s="1">
-        <v>181402.6166</v>
+        <v>181409.9963</v>
       </c>
       <c r="L22" s="1">
-        <v>11.1219</v>
+        <v>11.1223</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -4051,10 +4054,10 @@
         <v>280933.8142</v>
       </c>
       <c r="K23" s="1">
-        <v>178730.1606</v>
+        <v>178748.2174</v>
       </c>
       <c r="L23" s="1">
-        <v>11.0969</v>
+        <v>11.0981</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -4104,10 +4107,10 @@
         <v>287035.3185</v>
       </c>
       <c r="K24" s="1">
-        <v>176766.628</v>
+        <v>176792.5326</v>
       </c>
       <c r="L24" s="1">
-        <v>11.0726</v>
+        <v>11.0742</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -4157,10 +4160,10 @@
         <v>297637.2458</v>
       </c>
       <c r="K25" s="1">
-        <v>190720.8758</v>
+        <v>190746.7804</v>
       </c>
       <c r="L25" s="1">
-        <v>11.2248</v>
+        <v>11.2263</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -4210,10 +4213,10 @@
         <v>332849.3297</v>
       </c>
       <c r="K26" s="1">
-        <v>207313.501</v>
+        <v>207339.4056</v>
       </c>
       <c r="L26" s="1">
-        <v>11.3611</v>
+        <v>11.3625</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -4263,10 +4266,10 @@
         <v>332469.4209</v>
       </c>
       <c r="K27" s="1">
-        <v>191973.8022</v>
+        <v>192060.9773</v>
       </c>
       <c r="L27" s="1">
-        <v>11.1634</v>
+        <v>11.1685</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -4316,10 +4319,10 @@
         <v>318541.6325</v>
       </c>
       <c r="K28" s="1">
-        <v>212435.4699</v>
+        <v>212522.645</v>
       </c>
       <c r="L28" s="1">
-        <v>11.385</v>
+        <v>11.3897</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -4369,10 +4372,10 @@
         <v>331553.1508</v>
       </c>
       <c r="K29" s="1">
-        <v>254186.7946</v>
+        <v>254273.9698</v>
       </c>
       <c r="L29" s="1">
-        <v>11.5245</v>
+        <v>11.5284</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -4422,10 +4425,10 @@
         <v>341238.6671</v>
       </c>
       <c r="K30" s="1">
-        <v>261035.8554</v>
+        <v>261123.0306</v>
       </c>
       <c r="L30" s="1">
-        <v>11.5466</v>
+        <v>11.5505</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -4475,10 +4478,10 @@
         <v>373153.1537</v>
       </c>
       <c r="K31" s="1">
-        <v>271364.2043</v>
+        <v>271451.3794</v>
       </c>
       <c r="L31" s="1">
-        <v>11.5777</v>
+        <v>11.5814</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -4528,10 +4531,10 @@
         <v>393649.8334</v>
       </c>
       <c r="K32" s="1">
-        <v>269574.5076</v>
+        <v>269668.8403</v>
       </c>
       <c r="L32" s="1">
-        <v>11.5697</v>
+        <v>11.5737</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -4581,10 +4584,10 @@
         <v>415900.021</v>
       </c>
       <c r="K33" s="1">
-        <v>269075.8338</v>
+        <v>269172.1606</v>
       </c>
       <c r="L33" s="1">
-        <v>11.5668</v>
+        <v>11.5709</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -4634,10 +4637,10 @@
         <v>453578.0443</v>
       </c>
       <c r="K34" s="1">
-        <v>266816.6147</v>
+        <v>266921.973</v>
       </c>
       <c r="L34" s="1">
-        <v>11.5503</v>
+        <v>11.5549</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -4687,10 +4690,10 @@
         <v>480200.5713</v>
       </c>
       <c r="K35" s="1">
-        <v>259577.9558</v>
+        <v>259712.2073</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4825</v>
+        <v>11.4884</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -4740,10 +4743,10 @@
         <v>457171.5943</v>
       </c>
       <c r="K36" s="1">
-        <v>252928.8659</v>
+        <v>253089.6803</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4063</v>
+        <v>11.4135</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -4793,10 +4796,10 @@
         <v>483389.3481</v>
       </c>
       <c r="K37" s="1">
-        <v>296130.3516</v>
+        <v>296291.166</v>
       </c>
       <c r="L37" s="1">
-        <v>11.7127</v>
+        <v>11.7191</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -4846,10 +4849,10 @@
         <v>495111.5062</v>
       </c>
       <c r="K38" s="1">
-        <v>299733.0136</v>
+        <v>299893.828</v>
       </c>
       <c r="L38" s="1">
-        <v>11.737</v>
+        <v>11.7433</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -5720,10 +5723,10 @@
         <v>201273.5559</v>
       </c>
       <c r="K16" s="1">
-        <v>106082.688</v>
+        <v>106083.8996</v>
       </c>
       <c r="L16" s="1">
-        <v>9.954000000000001</v>
+        <v>9.9542</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -5773,10 +5776,10 @@
         <v>211640.8201</v>
       </c>
       <c r="K17" s="1">
-        <v>105455.5596</v>
+        <v>105459.2762</v>
       </c>
       <c r="L17" s="1">
-        <v>9.935</v>
+        <v>9.9353</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -5826,10 +5829,10 @@
         <v>211539.8542</v>
       </c>
       <c r="K18" s="1">
-        <v>115906.9127</v>
+        <v>115910.6292</v>
       </c>
       <c r="L18" s="1">
-        <v>10.2354</v>
+        <v>10.2358</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -5879,10 +5882,10 @@
         <v>233201.3096</v>
       </c>
       <c r="K19" s="1">
-        <v>136880.6126</v>
+        <v>136884.3291</v>
       </c>
       <c r="L19" s="1">
-        <v>10.6608</v>
+        <v>10.661</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -5932,10 +5935,10 @@
         <v>224993.2195</v>
       </c>
       <c r="K20" s="1">
-        <v>146249.3254</v>
+        <v>146253.042</v>
       </c>
       <c r="L20" s="1">
-        <v>10.8246</v>
+        <v>10.8249</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -5985,10 +5988,10 @@
         <v>230170.5736</v>
       </c>
       <c r="K21" s="1">
-        <v>175476.0732</v>
+        <v>175479.7898</v>
       </c>
       <c r="L21" s="1">
-        <v>11.086</v>
+        <v>11.0863</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -6038,10 +6041,10 @@
         <v>260512.0767</v>
       </c>
       <c r="K22" s="1">
-        <v>191238.8822</v>
+        <v>191242.5987</v>
       </c>
       <c r="L22" s="1">
-        <v>11.1777</v>
+        <v>11.178</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -6091,10 +6094,10 @@
         <v>283084.9088</v>
       </c>
       <c r="K23" s="1">
-        <v>188997.236</v>
+        <v>189009.9084</v>
       </c>
       <c r="L23" s="1">
-        <v>11.1584</v>
+        <v>11.1591</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -6144,10 +6147,10 @@
         <v>288974.7547</v>
       </c>
       <c r="K24" s="1">
-        <v>187522.7111</v>
+        <v>187541.2768</v>
       </c>
       <c r="L24" s="1">
-        <v>11.1414</v>
+        <v>11.1425</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -6197,10 +6200,10 @@
         <v>299589.386</v>
       </c>
       <c r="K25" s="1">
-        <v>202853.8399</v>
+        <v>202872.4057</v>
       </c>
       <c r="L25" s="1">
-        <v>11.2953</v>
+        <v>11.2963</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -6250,10 +6253,10 @@
         <v>336303.33</v>
       </c>
       <c r="K26" s="1">
-        <v>221040.1863</v>
+        <v>221058.7521</v>
       </c>
       <c r="L26" s="1">
-        <v>11.4313</v>
+        <v>11.4323</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -6303,10 +6306,10 @@
         <v>335276.0823</v>
       </c>
       <c r="K27" s="1">
-        <v>205462.9039</v>
+        <v>205543.6892</v>
       </c>
       <c r="L27" s="1">
-        <v>11.2465</v>
+        <v>11.2509</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -6356,10 +6359,10 @@
         <v>319767.6627</v>
       </c>
       <c r="K28" s="1">
-        <v>227907.7906</v>
+        <v>227988.5759</v>
       </c>
       <c r="L28" s="1">
-        <v>11.4679</v>
+        <v>11.472</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -6409,10 +6412,10 @@
         <v>332980.8461</v>
       </c>
       <c r="K29" s="1">
-        <v>273112.8237</v>
+        <v>273193.6089</v>
       </c>
       <c r="L29" s="1">
-        <v>11.5964</v>
+        <v>11.5998</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -6462,10 +6465,10 @@
         <v>342641.1959</v>
       </c>
       <c r="K30" s="1">
-        <v>281192.8603</v>
+        <v>281273.6456</v>
       </c>
       <c r="L30" s="1">
-        <v>11.6189</v>
+        <v>11.6223</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -6515,10 +6518,10 @@
         <v>376130.1223</v>
       </c>
       <c r="K31" s="1">
-        <v>293046.2711</v>
+        <v>293127.0564</v>
       </c>
       <c r="L31" s="1">
-        <v>11.6494</v>
+        <v>11.6526</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -6568,10 +6571,10 @@
         <v>397424.5555</v>
       </c>
       <c r="K32" s="1">
-        <v>291952.4474</v>
+        <v>292037.6072</v>
       </c>
       <c r="L32" s="1">
-        <v>11.6451</v>
+        <v>11.6485</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -6621,10 +6624,10 @@
         <v>420638.2283</v>
       </c>
       <c r="K33" s="1">
-        <v>292273.298</v>
+        <v>292358.4578</v>
       </c>
       <c r="L33" s="1">
-        <v>11.6467</v>
+        <v>11.6501</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -6674,10 +6677,10 @@
         <v>460543.6144</v>
       </c>
       <c r="K34" s="1">
-        <v>290724.2204</v>
+        <v>290815.5729</v>
       </c>
       <c r="L34" s="1">
-        <v>11.6367</v>
+        <v>11.6403</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -6727,10 +6730,10 @@
         <v>488567.303</v>
       </c>
       <c r="K35" s="1">
-        <v>283814.3739</v>
+        <v>283933.3071</v>
       </c>
       <c r="L35" s="1">
-        <v>11.5786</v>
+        <v>11.5834</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -6780,10 +6783,10 @@
         <v>462662.3034</v>
       </c>
       <c r="K36" s="1">
-        <v>277554.7617</v>
+        <v>277698.7018</v>
       </c>
       <c r="L36" s="1">
-        <v>11.5142</v>
+        <v>11.5202</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -6833,10 +6836,10 @@
         <v>490306.2149</v>
       </c>
       <c r="K37" s="1">
-        <v>325499.2382</v>
+        <v>325643.1783</v>
       </c>
       <c r="L37" s="1">
-        <v>11.8127</v>
+        <v>11.818</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -6886,10 +6889,10 @@
         <v>502183.9626</v>
       </c>
       <c r="K38" s="1">
-        <v>330438.2958</v>
+        <v>330582.2359</v>
       </c>
       <c r="L38" s="1">
-        <v>11.842</v>
+        <v>11.8472</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -7813,10 +7816,10 @@
         <v>213215.2537</v>
       </c>
       <c r="K17" s="1">
-        <v>109772.4833</v>
+        <v>109773.4144</v>
       </c>
       <c r="L17" s="1">
-        <v>9.9817</v>
+        <v>9.9818</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -7866,7 +7869,7 @@
         <v>212721.3056</v>
       </c>
       <c r="K18" s="1">
-        <v>121046.743</v>
+        <v>121047.6741</v>
       </c>
       <c r="L18" s="1">
         <v>10.2907</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -7919,10 +7922,10 @@
         <v>234836.7915</v>
       </c>
       <c r="K19" s="1">
-        <v>143310.3643</v>
+        <v>143311.2954</v>
       </c>
       <c r="L19" s="1">
-        <v>10.7175</v>
+        <v>10.7176</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -7972,7 +7975,7 @@
         <v>225823.2993</v>
       </c>
       <c r="K20" s="1">
-        <v>153576.4828</v>
+        <v>153577.4139</v>
       </c>
       <c r="L20" s="1">
         <v>10.8866</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -8025,10 +8028,10 @@
         <v>230772.9099</v>
       </c>
       <c r="K21" s="1">
-        <v>184634.5507</v>
+        <v>184635.4819</v>
       </c>
       <c r="L21" s="1">
-        <v>11.1427</v>
+        <v>11.1428</v>
       </c>
       <c r="M21" s="1">
         <v>0.5</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -8078,7 +8081,7 @@
         <v>262101.1473</v>
       </c>
       <c r="K22" s="1">
-        <v>201710.1336</v>
+        <v>201711.0647</v>
       </c>
       <c r="L22" s="1">
         <v>11.233</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -8131,10 +8134,10 @@
         <v>285331.6462</v>
       </c>
       <c r="K23" s="1">
-        <v>199965.074</v>
+        <v>199972.977</v>
       </c>
       <c r="L23" s="1">
-        <v>11.2191</v>
+        <v>11.2195</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -8184,10 +8187,10 @@
         <v>290995.1747</v>
       </c>
       <c r="K24" s="1">
-        <v>199054.8565</v>
+        <v>199066.3975</v>
       </c>
       <c r="L24" s="1">
-        <v>11.2094</v>
+        <v>11.21</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -8237,10 +8240,10 @@
         <v>301621.8551</v>
       </c>
       <c r="K25" s="1">
-        <v>215905.8121</v>
+        <v>215917.3531</v>
       </c>
       <c r="L25" s="1">
-        <v>11.3648</v>
+        <v>11.3654</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -8290,10 +8293,10 @@
         <v>339952.376</v>
       </c>
       <c r="K26" s="1">
-        <v>235854.2396</v>
+        <v>235865.7806</v>
       </c>
       <c r="L26" s="1">
-        <v>11.5004</v>
+        <v>11.5009</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -8343,10 +8346,10 @@
         <v>338225.9026</v>
       </c>
       <c r="K27" s="1">
-        <v>220078.2899</v>
+        <v>220152.8439</v>
       </c>
       <c r="L27" s="1">
-        <v>11.3282</v>
+        <v>11.332</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -8396,10 +8399,10 @@
         <v>321002.3812</v>
       </c>
       <c r="K28" s="1">
-        <v>244727.5747</v>
+        <v>244802.1287</v>
       </c>
       <c r="L28" s="1">
-        <v>11.5495</v>
+        <v>11.553</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -8449,10 +8452,10 @@
         <v>334434.6551</v>
       </c>
       <c r="K29" s="1">
-        <v>293743.3844</v>
+        <v>293817.9384</v>
       </c>
       <c r="L29" s="1">
-        <v>11.6669</v>
+        <v>11.6698</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -8502,10 +8505,10 @@
         <v>344067.2691</v>
       </c>
       <c r="K30" s="1">
-        <v>303235.3199</v>
+        <v>303309.8739</v>
       </c>
       <c r="L30" s="1">
-        <v>11.6895</v>
+        <v>11.6923</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -8555,10 +8558,10 @@
         <v>379277.0907</v>
       </c>
       <c r="K31" s="1">
-        <v>316831.9675</v>
+        <v>316906.5215</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7191</v>
+        <v>11.7219</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -8608,10 +8611,10 @@
         <v>401447.9529</v>
       </c>
       <c r="K32" s="1">
-        <v>316585.3129</v>
+        <v>316660.8533</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7183</v>
+        <v>11.7211</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -8661,10 +8664,10 @@
         <v>425721.1822</v>
       </c>
       <c r="K33" s="1">
-        <v>317898.1895</v>
+        <v>317973.73</v>
       </c>
       <c r="L33" s="1">
-        <v>11.7243</v>
+        <v>11.7271</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -8714,10 +8717,10 @@
         <v>468087.1967</v>
       </c>
       <c r="K34" s="1">
-        <v>317230.3147</v>
+        <v>317308.525</v>
       </c>
       <c r="L34" s="1">
-        <v>11.7204</v>
+        <v>11.7233</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -8767,10 +8770,10 @@
         <v>497666.0193</v>
       </c>
       <c r="K35" s="1">
-        <v>310789.5091</v>
+        <v>310893.428</v>
       </c>
       <c r="L35" s="1">
-        <v>11.672</v>
+        <v>11.6759</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -8820,10 +8823,10 @@
         <v>468558.0605</v>
       </c>
       <c r="K36" s="1">
-        <v>305074.7572</v>
+        <v>305201.5063</v>
       </c>
       <c r="L36" s="1">
-        <v>11.6193</v>
+        <v>11.6242</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -8873,10 +8876,10 @@
         <v>497791.9625</v>
       </c>
       <c r="K37" s="1">
-        <v>358421.5059</v>
+        <v>358548.255</v>
       </c>
       <c r="L37" s="1">
-        <v>11.9101</v>
+        <v>11.9143</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -8926,10 +8929,10 @@
         <v>509843.6824</v>
       </c>
       <c r="K38" s="1">
-        <v>364981.8933</v>
+        <v>365108.6425</v>
       </c>
       <c r="L38" s="1">
-        <v>11.9441</v>
+        <v>11.9483</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.5994</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6663</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.701</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8109</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.9322</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.5846</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2867</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.0645</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8083</v>
@@ -10171,10 +10174,10 @@
         <v>287678.2783</v>
       </c>
       <c r="K23" s="1">
-        <v>211683.3537</v>
+        <v>211688.05</v>
       </c>
       <c r="L23" s="1">
-        <v>11.2789</v>
+        <v>11.2792</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5636</v>
@@ -10224,10 +10227,10 @@
         <v>293099.7467</v>
       </c>
       <c r="K24" s="1">
-        <v>211421.3683</v>
+        <v>211427.1117</v>
       </c>
       <c r="L24" s="1">
-        <v>11.2763</v>
+        <v>11.2767</v>
       </c>
       <c r="M24" s="1">
         <v>0.5</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.1788</v>
@@ -10277,10 +10280,10 @@
         <v>303737.6466</v>
       </c>
       <c r="K25" s="1">
-        <v>229949.5635</v>
+        <v>229955.3069</v>
       </c>
       <c r="L25" s="1">
-        <v>11.4332</v>
+        <v>11.4335</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.5668</v>
@@ -10330,10 +10333,10 @@
         <v>343808.8619</v>
       </c>
       <c r="K26" s="1">
-        <v>251846.0575</v>
+        <v>251851.8009</v>
       </c>
       <c r="L26" s="1">
-        <v>11.5682</v>
+        <v>11.5685</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.962</v>
@@ -10383,10 +10386,10 @@
         <v>341326.8042</v>
       </c>
       <c r="K27" s="1">
-        <v>235918.7011</v>
+        <v>235988.0623</v>
       </c>
       <c r="L27" s="1">
-        <v>11.4084</v>
+        <v>11.4118</v>
       </c>
       <c r="M27" s="1">
         <v>0.5</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.2659</v>
@@ -10436,10 +10439,10 @@
         <v>322241.388</v>
       </c>
       <c r="K28" s="1">
-        <v>263018.4953</v>
+        <v>263087.8565</v>
       </c>
       <c r="L28" s="1">
-        <v>11.6295</v>
+        <v>11.6326</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.4103</v>
@@ -10489,10 +10492,10 @@
         <v>335911.8028</v>
       </c>
       <c r="K29" s="1">
-        <v>316241.0547</v>
+        <v>316310.4159</v>
       </c>
       <c r="L29" s="1">
-        <v>11.7357</v>
+        <v>11.7383</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.3976</v>
@@ -10542,10 +10545,10 @@
         <v>345513.8312</v>
       </c>
       <c r="K30" s="1">
-        <v>327350.4209</v>
+        <v>327419.7821</v>
       </c>
       <c r="L30" s="1">
-        <v>11.7582</v>
+        <v>11.7607</v>
       </c>
       <c r="M30" s="1">
         <v>0.5</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9013</v>
@@ -10595,10 +10598,10 @@
         <v>382440.3269</v>
       </c>
       <c r="K31" s="1">
-        <v>338403.036</v>
+        <v>338472.3971</v>
       </c>
       <c r="L31" s="1">
-        <v>11.7788</v>
+        <v>11.7812</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.3527</v>
@@ -10648,10 +10651,10 @@
         <v>405552.7282</v>
       </c>
       <c r="K32" s="1">
-        <v>343899.5949</v>
+        <v>343968.9561</v>
       </c>
       <c r="L32" s="1">
-        <v>11.7955</v>
+        <v>11.7979</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.8804</v>
@@ -10701,10 +10704,10 @@
         <v>430994.445</v>
       </c>
       <c r="K33" s="1">
-        <v>346406.0356</v>
+        <v>346475.3968</v>
       </c>
       <c r="L33" s="1">
-        <v>11.8056</v>
+        <v>11.808</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6268</v>
@@ -10754,10 +10757,10 @@
         <v>476079.264</v>
       </c>
       <c r="K34" s="1">
-        <v>346821.2204</v>
+        <v>346890.5816</v>
       </c>
       <c r="L34" s="1">
-        <v>11.8078</v>
+        <v>11.8101</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.3636</v>
@@ -10807,10 +10810,10 @@
         <v>507385.6224</v>
       </c>
       <c r="K35" s="1">
-        <v>341018.9318</v>
+        <v>341111.4528</v>
       </c>
       <c r="L35" s="1">
-        <v>11.7688</v>
+        <v>11.772</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.8711</v>
@@ -10860,10 +10863,10 @@
         <v>474707.2381</v>
       </c>
       <c r="K36" s="1">
-        <v>336037.4645</v>
+        <v>336149.8864</v>
       </c>
       <c r="L36" s="1">
-        <v>11.7279</v>
+        <v>11.7318</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.1252</v>
@@ -10913,10 +10916,10 @@
         <v>505715.5005</v>
       </c>
       <c r="K37" s="1">
-        <v>395543.4271</v>
+        <v>395655.8489</v>
       </c>
       <c r="L37" s="1">
-        <v>12.0101</v>
+        <v>12.0135</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1934</v>
@@ -10966,10 +10969,10 @@
         <v>517961.9473</v>
       </c>
       <c r="K38" s="1">
-        <v>404064.1492</v>
+        <v>404176.571</v>
       </c>
       <c r="L38" s="1">
-        <v>12.0486</v>
+        <v>12.052</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>12.4525</v>
       </c>
       <c r="D3" s="1">
-        <v>11.737</v>
+        <v>11.7433</v>
       </c>
       <c r="E3" s="1">
-        <v>11.842</v>
+        <v>11.8472</v>
       </c>
       <c r="F3" s="1">
-        <v>11.9441</v>
+        <v>11.9483</v>
       </c>
       <c r="G3" s="1">
-        <v>12.0486</v>
+        <v>12.052</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>87098.3652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1375</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.651</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5191</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3964</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2815</v>
       </c>
     </row>
   </sheetData>
